--- a/Basic health data.xlsx
+++ b/Basic health data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fyp 17 november\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\fyp 17 november\excel files data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B924D0-3A4B-4E73-91C4-2B79BF40ED0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739EE2CC-C1FC-417A-BC4F-B5C7B02982BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +356,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9.6"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9.6"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -447,12 +453,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -461,6 +461,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -745,7 +751,7 @@
   <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,418 +771,418 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="186" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="129" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="114.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="4" t="s">
         <v>100</v>
       </c>
     </row>
